--- a/biology/Botanique/Iris_sibirica/Iris_sibirica.xlsx
+++ b/biology/Botanique/Iris_sibirica/Iris_sibirica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris de Sibérie (Iris sibirica) est une espèce de plantes herbacées appartenant au genre Iris et à la famille des Iridacées.
 Il est présent en Europe centrale, orientale, en Asie du Nord ainsi que dans le Caucase comme en Arménie aux alentours du lac Arpi.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un iris rhizomateux.
-Cette espèce compte 28 chromosomes[1].
+Cette espèce compte 28 chromosomes.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été déplacée plusieurs fois dans d'autres genres :
 Limnirion sibiricum (L.) Opiz - en 1852
 Xiphion sibiricum (L.) Schrank - en 1824
 Xyridion sibiricum (L.) Klatt - en 1872
-Actuellement, elle est classée dans le sous-genre Limniris section Limniris[2].
+Actuellement, elle est classée dans le sous-genre Limniris section Limniris.
 Elle compte de nombreuses variétés, sous-espèces et formes, ainsi que leurs synonymes :
 Iris sibirica fo. albiflora Makino (1904)
 Iris sibirica var. flexuosa (Murray) Baker (1882) - synonyme : Iris flexuosa Murray
